--- a/docs/吉视传媒手机营业厅技术方案.xlsx
+++ b/docs/吉视传媒手机营业厅技术方案.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28760" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统设计" sheetId="2" r:id="rId1"/>
     <sheet name="特殊方案" sheetId="1" r:id="rId2"/>
     <sheet name="支付中心" sheetId="3" r:id="rId3"/>
+    <sheet name="硬件架构" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -114,11 +115,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -126,6 +127,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3340,7 +3346,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>支付中心</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3396,7 +3401,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>产品订购</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3452,7 +3456,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>特惠特价</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3508,7 +3511,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>有线初装</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3714,7 +3716,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>母平台</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3770,7 +3771,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>银联</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3926,7 +3926,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>产品订购</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3982,7 +3981,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>特惠特价</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4038,7 +4036,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>有线初装</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4094,7 +4091,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>支付中心</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4300,7 +4296,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>余额不足？</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4458,7 +4453,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>母平台</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4670,7 +4664,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
             <a:t>用户</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4725,6 +4718,1810 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>充值</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="4857750"/>
+          <a:ext cx="7105650" cy="1809751"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>MYSQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>集群</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2038349"/>
+          <a:ext cx="3648076" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户中心</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="2486026"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>nginx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="流程图: 磁盘 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="5353049"/>
+          <a:ext cx="952500" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js_biz_uc</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 磁盘 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="5362575"/>
+          <a:ext cx="1000125" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js_biz_mobile</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="流程图: 磁盘 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="5410200"/>
+          <a:ext cx="962025" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js_biz_trade</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 磁盘 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="6019800"/>
+          <a:ext cx="866775" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js_sys_center</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="3105151"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="3105151"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="3105151"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2324100" y="2924176"/>
+          <a:ext cx="1114425" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="2924176"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="2924176"/>
+          <a:ext cx="1123950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="云形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="857250"/>
+          <a:ext cx="3181350" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="cloud">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>clients</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="2066924"/>
+          <a:ext cx="3648076" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>运营中心</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="2514601"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>nginx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="3133726"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="3133726"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="3133726"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6334125" y="2952751"/>
+          <a:ext cx="1114425" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="2952751"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="2952751"/>
+          <a:ext cx="1123950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="4095750"/>
+          <a:ext cx="7534275" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>缓存集群</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="圆角矩形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="2076449"/>
+          <a:ext cx="3648076" cy="2514601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>增值服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="2524126"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>nginx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="3143251"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="3143251"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="3143251"/>
+          <a:ext cx="1047750" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>app1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10210800" y="2962276"/>
+          <a:ext cx="1114425" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11325225" y="2962276"/>
+          <a:ext cx="0" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11325225" y="2962276"/>
+          <a:ext cx="1123950" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="3857625"/>
+          <a:ext cx="1162050" cy="609599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>队列服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="流程图: 磁盘 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="5372100"/>
+          <a:ext cx="962025" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js_biz_vas</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5063,7 +6860,7 @@
       <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5085,9 +6882,9 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5109,28 +6906,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H53" t="s">
         <v>3</v>
       </c>
@@ -5146,4 +6943,20 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>